--- a/artfynd/A 46354-2019.xlsx
+++ b/artfynd/A 46354-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111659719</v>
+        <v>111659720</v>
       </c>
       <c r="B2" t="n">
-        <v>57580</v>
+        <v>95532</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>208249</v>
+        <v>221945</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>798923.9273017575</v>
+        <v>798928.2823411583</v>
       </c>
       <c r="R2" t="n">
-        <v>7235331.644869063</v>
+        <v>7235309.610864857</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111659720</v>
+        <v>111659719</v>
       </c>
       <c r="B3" t="n">
-        <v>95532</v>
+        <v>57580</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221945</v>
+        <v>208249</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>798928.2823411583</v>
+        <v>798923.9273017575</v>
       </c>
       <c r="R3" t="n">
-        <v>7235309.610864857</v>
+        <v>7235331.644869063</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>

--- a/artfynd/A 46354-2019.xlsx
+++ b/artfynd/A 46354-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111659720</v>
+        <v>111659719</v>
       </c>
       <c r="B2" t="n">
-        <v>95532</v>
+        <v>57580</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221945</v>
+        <v>208249</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>798928.2823411583</v>
+        <v>798923.9273017575</v>
       </c>
       <c r="R2" t="n">
-        <v>7235309.610864857</v>
+        <v>7235331.644869063</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111659719</v>
+        <v>111659720</v>
       </c>
       <c r="B3" t="n">
-        <v>57580</v>
+        <v>95532</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>208249</v>
+        <v>221945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>798923.9273017575</v>
+        <v>798928.2823411583</v>
       </c>
       <c r="R3" t="n">
-        <v>7235331.644869063</v>
+        <v>7235309.610864857</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>

--- a/artfynd/A 46354-2019.xlsx
+++ b/artfynd/A 46354-2019.xlsx
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>798923.9273017575</v>
+        <v>798924</v>
       </c>
       <c r="R2" t="n">
-        <v>7235331.644869063</v>
+        <v>7235332</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -753,19 +753,9 @@
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-09</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -832,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>798928.2823411583</v>
+        <v>798928</v>
       </c>
       <c r="R3" t="n">
-        <v>7235309.610864857</v>
+        <v>7235310</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -865,19 +855,9 @@
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-09</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
